--- a/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{802D346B-BFF9-AC4C-AA74-CBDCAE78867F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90142B1A-8201-9C4C-9CB6-22DD2FB1C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10520" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="9000" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -104,9 +104,6 @@
     <t>Methane_nu</t>
   </si>
   <si>
-    <t>Average k600 @xn10</t>
-  </si>
-  <si>
     <t>ER</t>
   </si>
   <si>
@@ -120,13 +117,37 @@
   </si>
   <si>
     <t>velocity (m/s)</t>
+  </si>
+  <si>
+    <t>Q_time_peak</t>
+  </si>
+  <si>
+    <t>*I trust handheld more on this one because I don't know what the salt concntration is,  but we can use peaks for velocity.</t>
+  </si>
+  <si>
+    <t>you know what? I should look at the rating curvefor stations 1 and 2 at this time</t>
+  </si>
+  <si>
+    <t>*look for 0m salt slug data, potentially we will adjust this</t>
+  </si>
+  <si>
+    <t>Background data @ -10m</t>
+  </si>
+  <si>
+    <t>Ave. CO2 ppm</t>
+  </si>
+  <si>
+    <t>Ave flux um/m2</t>
+  </si>
+  <si>
+    <t>Ave k600</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -153,13 +174,27 @@
       <name val="Lucida Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -174,7 +209,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -182,6 +217,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,13 +534,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B29" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
@@ -517,13 +558,14 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
+      <c r="B3" s="8"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -551,7 +593,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="3">
         <v>50</v>
@@ -559,10 +601,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B8" s="3">
+        <v>26</v>
+      </c>
+      <c r="B8" s="7">
         <v>0.4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -716,7 +761,7 @@
       <c r="B20" t="s">
         <v>15</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C20" s="8" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
@@ -725,38 +770,78 @@
       <c r="E20" s="4">
         <v>83.15</v>
       </c>
+      <c r="F20" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>21</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B22" t="s">
         <v>15</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C22" s="5">
         <v>90125</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D22" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="5">
+      <c r="E22" s="5">
         <v>85025</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B25" s="3"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="3">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27" s="3">
+        <v>2.46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="3">
+        <v>50.42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="B29" s="8"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>24</v>
-      </c>
+      <c r="B30" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90142B1A-8201-9C4C-9CB6-22DD2FB1C1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F45FE4-68D8-C14B-9F45-FC42EB8BC516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
   <si>
     <t>Date</t>
   </si>
@@ -62,9 +62,6 @@
     <t>k600_m/d</t>
   </si>
   <si>
-    <t>DOC</t>
-  </si>
-  <si>
     <t>Dist</t>
   </si>
   <si>
@@ -141,6 +138,12 @@
   </si>
   <si>
     <t>Ave k600</t>
+  </si>
+  <si>
+    <t>TDN mg/l</t>
+  </si>
+  <si>
+    <t>DOC mg/l</t>
   </si>
 </sst>
 </file>
@@ -537,7 +540,7 @@
   <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29:B30"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -558,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -593,7 +596,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="3">
         <v>50</v>
@@ -601,13 +604,13 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B8" s="7">
         <v>0.4</v>
       </c>
       <c r="C8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -628,24 +631,35 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>35</v>
+      </c>
+      <c r="B11">
+        <v>4.0739999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B12">
+        <v>0.126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>9</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>10</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>11</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>12</v>
-      </c>
-      <c r="E14" t="s">
-        <v>13</v>
       </c>
       <c r="F14" s="4"/>
       <c r="G14" s="6"/>
@@ -654,7 +668,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="4">
         <v>280.44819999999999</v>
@@ -676,7 +690,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="4">
         <v>1734.6880000000001</v>
@@ -685,7 +699,7 @@
         <v>1866.5419999999999</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="4">
         <v>1423.8040000000001</v>
@@ -696,7 +710,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B17" s="4">
         <v>1630.028</v>
@@ -716,7 +730,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="4">
         <v>1630.5291</v>
@@ -735,17 +749,17 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19">
         <f>0.041455*1000</f>
         <v>41.454999999999998</v>
       </c>
       <c r="D19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E19">
         <f>0.052515*1000</f>
@@ -756,13 +770,13 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="3">
         <v>80.5</v>
@@ -771,31 +785,31 @@
         <v>83.15</v>
       </c>
       <c r="F20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" t="s">
         <v>28</v>
-      </c>
-      <c r="G20" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D21" s="3"/>
       <c r="E21" s="4"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="5">
         <v>90125</v>
       </c>
       <c r="D22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E22" s="5">
         <v>85025</v>
@@ -803,13 +817,13 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="3"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B26" s="3">
         <v>1142</v>
@@ -817,7 +831,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B27" s="3">
         <v>2.46</v>
@@ -825,7 +839,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B28" s="3">
         <v>50.42</v>
@@ -833,13 +847,13 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B29" s="8"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B30" s="8"/>
     </row>

--- a/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F45FE4-68D8-C14B-9F45-FC42EB8BC516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E3966-1033-8645-8CAC-5A4BE2748EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="4480" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
+    <workbookView xWindow="9000" yWindow="3140" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
   <si>
     <t>Date</t>
   </si>
@@ -122,35 +122,47 @@
     <t>*I trust handheld more on this one because I don't know what the salt concntration is,  but we can use peaks for velocity.</t>
   </si>
   <si>
-    <t>you know what? I should look at the rating curvefor stations 1 and 2 at this time</t>
-  </si>
-  <si>
-    <t>*look for 0m salt slug data, potentially we will adjust this</t>
-  </si>
-  <si>
     <t>Background data @ -10m</t>
   </si>
   <si>
-    <t>Ave. CO2 ppm</t>
-  </si>
-  <si>
     <t>Ave flux um/m2</t>
   </si>
   <si>
-    <t>Ave k600</t>
-  </si>
-  <si>
     <t>TDN mg/l</t>
   </si>
   <si>
     <t>DOC mg/l</t>
+  </si>
+  <si>
+    <t>this is assuming 238g/l salt</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (air)</t>
+  </si>
+  <si>
+    <t>Ave CO2 ppm (water)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (air)</t>
+  </si>
+  <si>
+    <t>Ave Temp c (water)</t>
+  </si>
+  <si>
+    <t>Ave k m/d</t>
+  </si>
+  <si>
+    <t>Ave k600 m/d</t>
+  </si>
+  <si>
+    <t>%diff in CO2 ppm during injection</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +197,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -212,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -220,9 +239,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -537,19 +559,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -557,7 +580,7 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
@@ -565,13 +588,13 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="8"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+      <c r="A4" s="8" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="2">
@@ -579,7 +602,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+      <c r="A5" s="8" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="2">
@@ -587,66 +610,63 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+      <c r="A6" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3">
+      <c r="B7" s="3">
         <v>6.450996</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="3">
-        <v>50</v>
-      </c>
-    </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="A8" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
+      <c r="B8" s="3">
+        <v>0.39682539999999999</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="A9" s="8" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="3">
-        <v>88.010080000000002</v>
+        <v>107.0646</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="A10" s="8" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3">
-        <v>128.63560000000001</v>
+        <v>156.48560000000001</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>35</v>
+      <c r="A11" s="8" t="s">
+        <v>31</v>
       </c>
       <c r="B11">
         <v>4.0739999999999998</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>34</v>
+      <c r="A12" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="B12">
         <v>0.126</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="A14" s="8" t="s">
         <v>8</v>
       </c>
       <c r="B14" t="s">
@@ -667,7 +687,7 @@
       <c r="I14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="4">
@@ -689,7 +709,7 @@
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B16" s="4">
@@ -709,7 +729,7 @@
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="A17" s="8" t="s">
         <v>16</v>
       </c>
       <c r="B17" s="4">
@@ -729,7 +749,7 @@
       <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B18" s="4">
@@ -748,7 +768,7 @@
       <c r="G18" s="4"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="A19" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B19" t="s">
@@ -765,18 +785,20 @@
         <f>0.052515*1000</f>
         <v>52.515000000000001</v>
       </c>
-      <c r="F19" s="4"/>
+      <c r="F19" t="s">
+        <v>27</v>
+      </c>
       <c r="G19" s="4"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="A20" s="8" t="s">
         <v>19</v>
       </c>
       <c r="B20" t="s">
         <v>14</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>14</v>
+      <c r="C20">
+        <v>54.98</v>
       </c>
       <c r="D20" s="3">
         <v>80.5</v>
@@ -785,21 +807,28 @@
         <v>83.15</v>
       </c>
       <c r="F20" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="A21" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="4"/>
+      <c r="B21" t="s">
+        <v>14</v>
+      </c>
+      <c r="C21" s="10">
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="D21" s="11">
+        <v>0.49431712962962965</v>
+      </c>
+      <c r="E21" s="12">
+        <v>0.49479166666666669</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -817,45 +846,99 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B25" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="D25" s="9"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="B26" s="3">
-        <v>1142</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B26">
+        <f>(B16-B18)/AVERAGE(B16,B18)*100</f>
+        <v>6.190322758077043</v>
+      </c>
+      <c r="D26" s="9"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B27" s="3">
-        <v>2.46</v>
-      </c>
+      <c r="A27" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B27">
+        <v>278.8211</v>
+      </c>
+      <c r="D27" s="8"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B28" s="3">
-        <v>50.42</v>
-      </c>
+        <v>1142</v>
+      </c>
+      <c r="D28" s="9"/>
+      <c r="E28" s="3"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B29" s="8"/>
+        <v>35</v>
+      </c>
+      <c r="B29" s="3">
+        <v>7.306</v>
+      </c>
+      <c r="D29" s="9"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="3">
+        <v>6.3959999999999999</v>
+      </c>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="3">
+        <v>2.46</v>
+      </c>
+      <c r="D31" s="9"/>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3">
+        <v>38.21</v>
+      </c>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B33" s="3">
+        <v>55.94</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="3"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B34" s="7"/>
+      <c r="D34" s="9"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="8"/>
+      <c r="B35" s="7"/>
+      <c r="D35" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5E3966-1033-8645-8CAC-5A4BE2748EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC0918-8CFD-8643-B3C0-7AF289B1094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="3140" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>Date</t>
   </si>
@@ -44,9 +44,6 @@
     <t>Site</t>
   </si>
   <si>
-    <t>Slope</t>
-  </si>
-  <si>
     <t>time_start</t>
   </si>
   <si>
@@ -156,6 +153,15 @@
   </si>
   <si>
     <t>%diff in CO2 ppm during injection</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 25</t>
+  </si>
+  <si>
+    <t>slope btw 25 and 50</t>
+  </si>
+  <si>
+    <t>slope btw 0 and 50</t>
   </si>
 </sst>
 </file>
@@ -231,7 +237,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -245,6 +251,8 @@
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -559,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -571,7 +579,7 @@
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -579,366 +587,384 @@
         <v>44748</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="14">
+        <v>0.28400000000000003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="14">
+        <v>0.94400000000000006</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="14">
+        <v>0.6140000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.46319444444444446</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.5625</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="7"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.46319444444444446</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
+      <c r="B8" s="3">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.5625</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
+      <c r="B9" s="3">
+        <v>6.450996</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B6" s="3">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
+      <c r="B10" s="3">
+        <v>0.39682539999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>6.450996</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0.39682539999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
+      <c r="B11" s="3">
+        <v>107.0646</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="3">
-        <v>107.0646</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
+      <c r="B12" s="3">
+        <v>156.48560000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>4.0739999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14">
+        <v>0.126</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="3">
-        <v>156.48560000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B11">
-        <v>4.0739999999999998</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12">
-        <v>0.126</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
+      <c r="B16" t="s">
         <v>8</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C16" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D16" t="s">
         <v>10</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F16" s="4"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="4">
+      <c r="B17" s="4">
         <v>280.44819999999999</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C17" s="4">
         <v>409.87619999999998</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D17" s="4">
         <v>335.37220000000002</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E17" s="4">
         <v>313.70400000000001</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="4">
-        <v>1734.6880000000001</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1866.5419999999999</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="4">
-        <v>1423.8040000000001</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="4">
-        <v>1630.028</v>
-      </c>
-      <c r="C17" s="4">
-        <v>2658.12</v>
-      </c>
-      <c r="D17" s="4">
-        <v>1549.5940000000001</v>
-      </c>
-      <c r="E17" s="4">
-        <v>1973.9639999999999</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="4">
-        <v>1630.5291</v>
+        <v>1734.6880000000001</v>
       </c>
       <c r="C18" s="4">
-        <v>1631.489</v>
-      </c>
-      <c r="D18" s="4">
-        <v>960.62720000000002</v>
+        <v>1866.5419999999999</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="E18" s="4">
-        <v>1296.3213000000001</v>
+        <v>1423.8040000000001</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19">
+        <v>15</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1630.028</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2658.12</v>
+      </c>
+      <c r="D19" s="4">
+        <v>1549.5940000000001</v>
+      </c>
+      <c r="E19" s="4">
+        <v>1973.9639999999999</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B20" s="4">
+        <v>1630.5291</v>
+      </c>
+      <c r="C20" s="4">
+        <v>1631.489</v>
+      </c>
+      <c r="D20" s="4">
+        <v>960.62720000000002</v>
+      </c>
+      <c r="E20" s="4">
+        <v>1296.3213000000001</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" t="s">
+        <v>13</v>
+      </c>
+      <c r="C21">
         <f>0.041455*1000</f>
         <v>41.454999999999998</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21">
         <f>0.052515*1000</f>
         <v>52.515000000000001</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F21" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="C22">
+        <v>54.98</v>
+      </c>
+      <c r="D22" s="3">
+        <v>80.5</v>
+      </c>
+      <c r="E22" s="4">
+        <v>83.15</v>
+      </c>
+      <c r="F22" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.49333333333333335</v>
+      </c>
+      <c r="D23" s="11">
+        <v>0.49431712962962965</v>
+      </c>
+      <c r="E23" s="12">
+        <v>0.49479166666666669</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="5">
+        <v>90125</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="5">
+        <v>85025</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20">
-        <v>54.98</v>
-      </c>
-      <c r="D20" s="3">
-        <v>80.5</v>
-      </c>
-      <c r="E20" s="4">
-        <v>83.15</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28">
+        <f>(B18-B20)/AVERAGE(B18,B20)*100</f>
+        <v>6.190322758077043</v>
+      </c>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="10">
-        <v>0.49333333333333335</v>
-      </c>
-      <c r="D21" s="11">
-        <v>0.49431712962962965</v>
-      </c>
-      <c r="E21" s="12">
-        <v>0.49479166666666669</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="5">
-        <v>90125</v>
-      </c>
-      <c r="D22" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="5">
-        <v>85025</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A25" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="B26">
-        <f>(B16-B18)/AVERAGE(B16,B18)*100</f>
-        <v>6.190322758077043</v>
-      </c>
-      <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A27" s="8" t="s">
+      <c r="B29">
+        <v>278.8211</v>
+      </c>
+      <c r="D29" s="8"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="B27">
-        <v>278.8211</v>
-      </c>
-      <c r="D27" s="8"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A28" s="9" t="s">
+      <c r="B30" s="3">
+        <v>1142</v>
+      </c>
+      <c r="D30" s="9"/>
+      <c r="E30" s="3"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3">
-        <v>1142</v>
-      </c>
-      <c r="D28" s="9"/>
-      <c r="E28" s="3"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A29" s="9" t="s">
+      <c r="B31" s="3">
+        <v>7.306</v>
+      </c>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3">
-        <v>7.306</v>
-      </c>
-      <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A30" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B30" s="3">
+      <c r="B32" s="3">
         <v>6.3959999999999999</v>
-      </c>
-      <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A31" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31" s="3">
-        <v>2.46</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="3"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B32" s="3">
-        <v>38.21</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B33" s="3">
-        <v>55.94</v>
+        <v>2.46</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B34" s="7"/>
+        <v>36</v>
+      </c>
+      <c r="B34" s="3">
+        <v>38.21</v>
+      </c>
       <c r="D34" s="9"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B35" s="3">
+        <v>55.94</v>
+      </c>
       <c r="D35" s="9"/>
+      <c r="E35" s="3"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36" s="7"/>
+      <c r="D36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B37" s="7"/>
+      <c r="D37" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
+++ b/Injections/Injections_Results/Inj_results_2022-07-06.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/Ecuador2022/Injections/Injections_Results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC0918-8CFD-8643-B3C0-7AF289B1094D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EECA5C4-79E7-2E44-85AE-30D238AE2862}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9000" yWindow="3140" windowWidth="26840" windowHeight="15940" xr2:uid="{5E9050EA-99EC-FD48-90DA-263D9E31658E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>slope btw 0 and 50</t>
+  </si>
+  <si>
+    <t>Ave Pressure kpa (air)</t>
   </si>
 </sst>
 </file>
@@ -237,7 +240,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -251,8 +254,6 @@
     <xf numFmtId="19" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="21" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -567,10 +568,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D91348-1C7F-234C-AB52-71202478D2D2}">
-  <dimension ref="A1:J37"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -596,26 +597,26 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B3" s="14">
+      <c r="B3">
         <v>0.28400000000000003</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="B4" s="14">
+      <c r="B4">
         <v>0.94400000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B5" s="14">
+      <c r="B5">
         <v>0.6140000000000001</v>
       </c>
     </row>
@@ -916,55 +917,64 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="B32" s="3">
-        <v>6.3959999999999999</v>
+        <v>62.77</v>
       </c>
       <c r="D32" s="9"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="B33" s="3">
-        <v>2.46</v>
+        <v>6.3959999999999999</v>
       </c>
       <c r="D33" s="9"/>
-      <c r="E33" s="3"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3">
-        <v>38.21</v>
+        <v>2.46</v>
       </c>
       <c r="D34" s="9"/>
+      <c r="E34" s="3"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B35" s="3">
-        <v>55.94</v>
+        <v>38.21</v>
       </c>
       <c r="D35" s="9"/>
-      <c r="E35" s="3"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="7"/>
+        <v>37</v>
+      </c>
+      <c r="B36" s="3">
+        <v>55.94</v>
+      </c>
       <c r="D36" s="9"/>
+      <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B37" s="7"/>
       <c r="D37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B38" s="7"/>
+      <c r="D38" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
